--- a/SA 1/Week1/L4/01_04_cell_protection(1).xlsx
+++ b/SA 1/Week1/L4/01_04_cell_protection(1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\esthers\Documents\ICT1 (S2 2017)\Moodle\SA1\Wk1 Class4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\MUFYICT\SA 1\Week1\L4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -460,7 +460,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -739,7 +748,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,15 +833,15 @@
         <v>3</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:D9" si="0">B5*C5</f>
+        <f>B5*C5</f>
         <v>70.5</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:E9" si="1">D5*$B$11</f>
+        <f>D5*$B$11</f>
         <v>7.0500000000000007</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F9" si="2">D5+E5</f>
+        <f>D5+E5</f>
         <v>77.55</v>
       </c>
     </row>
@@ -847,15 +856,15 @@
         <v>2</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="0"/>
+        <f>B6*C6</f>
         <v>199.8</v>
       </c>
       <c r="E6" s="4">
-        <f t="shared" si="1"/>
+        <f>D6*$B$11</f>
         <v>19.980000000000004</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="2"/>
+        <f>D6+E6</f>
         <v>219.78000000000003</v>
       </c>
     </row>
@@ -870,15 +879,15 @@
         <v>10</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="0"/>
+        <f>B7*C7</f>
         <v>230</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="1"/>
+        <f>D7*$B$11</f>
         <v>23</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="2"/>
+        <f>D7+E7</f>
         <v>253</v>
       </c>
     </row>
@@ -893,15 +902,15 @@
         <v>370</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="0"/>
+        <f>B8*C8</f>
         <v>1443</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="1"/>
+        <f>D8*$B$11</f>
         <v>144.30000000000001</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="2"/>
+        <f>D8+E8</f>
         <v>1587.3</v>
       </c>
     </row>
@@ -916,15 +925,15 @@
         <v>4</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="0"/>
+        <f>B9*C9</f>
         <v>92</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="1"/>
+        <f>D9*$B$11</f>
         <v>9.2000000000000011</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="2"/>
+        <f>D9+E9</f>
         <v>101.2</v>
       </c>
     </row>
@@ -949,7 +958,10 @@
       <c r="F11" s="20"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
+  <sortState ref="D5:F9">
+    <sortCondition sortBy="cellColor" ref="D4" dxfId="0"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:F2"/>
   </mergeCells>
